--- a/natmiOut/OldD2/LR-pairs_lrc2p/Cthrc1-Ror2.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Cthrc1-Ror2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,55 +528,55 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.1782731012318</v>
+        <v>2.4135925</v>
       </c>
       <c r="H2">
-        <v>2.1782731012318</v>
+        <v>4.827185</v>
       </c>
       <c r="I2">
-        <v>0.1032174424793571</v>
+        <v>0.1006166576043813</v>
       </c>
       <c r="J2">
-        <v>0.1032174424793571</v>
+        <v>0.07006619804477368</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>2.49276511855089</v>
+        <v>0.0552105</v>
       </c>
       <c r="N2">
-        <v>2.49276511855089</v>
+        <v>0.110421</v>
       </c>
       <c r="O2">
-        <v>0.8276948132418582</v>
+        <v>0.01579120108286444</v>
       </c>
       <c r="P2">
-        <v>0.8276948132418582</v>
+        <v>0.01113815545262342</v>
       </c>
       <c r="Q2">
-        <v>5.429923205428303</v>
+        <v>0.13325564872125</v>
       </c>
       <c r="R2">
-        <v>5.429923205428303</v>
+        <v>0.533022594885</v>
       </c>
       <c r="S2">
-        <v>0.08543254177625369</v>
+        <v>0.001588857872516507</v>
       </c>
       <c r="T2">
-        <v>0.08543254177625369</v>
+        <v>0.0007804082057969886</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,60 +590,60 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.1782731012318</v>
+        <v>2.4135925</v>
       </c>
       <c r="H3">
-        <v>2.1782731012318</v>
+        <v>4.827185</v>
       </c>
       <c r="I3">
-        <v>0.1032174424793571</v>
+        <v>0.1006166576043813</v>
       </c>
       <c r="J3">
-        <v>0.1032174424793571</v>
+        <v>0.07006619804477368</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.518930833472053</v>
+        <v>2.655685</v>
       </c>
       <c r="N3">
-        <v>0.518930833472053</v>
+        <v>7.967055</v>
       </c>
       <c r="O3">
-        <v>0.1723051867581419</v>
+        <v>0.7595739188695422</v>
       </c>
       <c r="P3">
-        <v>0.1723051867581419</v>
+        <v>0.8036360573586609</v>
       </c>
       <c r="Q3">
-        <v>1.130373075951972</v>
+        <v>6.409741398362501</v>
       </c>
       <c r="R3">
-        <v>1.130373075951972</v>
+        <v>38.458448390175</v>
       </c>
       <c r="S3">
-        <v>0.01778490070310338</v>
+        <v>0.07642578892011485</v>
       </c>
       <c r="T3">
-        <v>0.01778490070310338</v>
+        <v>0.05630772315081304</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>17.2308479124912</v>
+        <v>2.4135925</v>
       </c>
       <c r="H4">
-        <v>17.2308479124912</v>
+        <v>4.827185</v>
       </c>
       <c r="I4">
-        <v>0.8164835035020932</v>
+        <v>0.1006166576043813</v>
       </c>
       <c r="J4">
-        <v>0.8164835035020932</v>
+        <v>0.07006619804477368</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>2.49276511855089</v>
+        <v>0.26551</v>
       </c>
       <c r="N4">
-        <v>2.49276511855089</v>
+        <v>0.79653</v>
       </c>
       <c r="O4">
-        <v>0.8276948132418582</v>
+        <v>0.07594065982940451</v>
       </c>
       <c r="P4">
-        <v>0.8276948132418582</v>
+        <v>0.08034590306805892</v>
       </c>
       <c r="Q4">
-        <v>42.95245663931348</v>
+        <v>0.640832944675</v>
       </c>
       <c r="R4">
-        <v>42.95245663931348</v>
+        <v>3.84499766805</v>
       </c>
       <c r="S4">
-        <v>0.6757991609462232</v>
+        <v>0.00764089536830599</v>
       </c>
       <c r="T4">
-        <v>0.6757991609462232</v>
+        <v>0.005629531956452805</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -717,57 +717,57 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>17.2308479124912</v>
+        <v>2.4135925</v>
       </c>
       <c r="H5">
-        <v>17.2308479124912</v>
+        <v>4.827185</v>
       </c>
       <c r="I5">
-        <v>0.8164835035020932</v>
+        <v>0.1006166576043813</v>
       </c>
       <c r="J5">
-        <v>0.8164835035020932</v>
+        <v>0.07006619804477368</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.518930833472053</v>
+        <v>0.519877</v>
       </c>
       <c r="N5">
-        <v>0.518930833472053</v>
+        <v>1.039754</v>
       </c>
       <c r="O5">
-        <v>0.1723051867581419</v>
+        <v>0.1486942202181889</v>
       </c>
       <c r="P5">
-        <v>0.1723051867581419</v>
+        <v>0.1048798841206565</v>
       </c>
       <c r="Q5">
-        <v>8.941618268659244</v>
+        <v>1.2547712281225</v>
       </c>
       <c r="R5">
-        <v>8.941618268659244</v>
+        <v>5.01908491249</v>
       </c>
       <c r="S5">
-        <v>0.1406843425558702</v>
+        <v>0.01496111544344399</v>
       </c>
       <c r="T5">
-        <v>0.1406843425558702</v>
+        <v>0.007348534731710835</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -776,60 +776,60 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.08115502202555</v>
+        <v>19.76703633333333</v>
       </c>
       <c r="H6">
-        <v>1.08115502202555</v>
+        <v>59.301109</v>
       </c>
       <c r="I6">
-        <v>0.05123051661156925</v>
+        <v>0.8240384930780011</v>
       </c>
       <c r="J6">
-        <v>0.05123051661156925</v>
+        <v>0.8607507786564448</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M6">
-        <v>2.49276511855089</v>
+        <v>0.0552105</v>
       </c>
       <c r="N6">
-        <v>2.49276511855089</v>
+        <v>0.110421</v>
       </c>
       <c r="O6">
-        <v>0.8276948132418582</v>
+        <v>0.01579120108286444</v>
       </c>
       <c r="P6">
-        <v>0.8276948132418582</v>
+        <v>0.01113815545262342</v>
       </c>
       <c r="Q6">
-        <v>2.69506552665141</v>
+        <v>1.0913479594815</v>
       </c>
       <c r="R6">
-        <v>2.69506552665141</v>
+        <v>6.548087756889</v>
       </c>
       <c r="S6">
-        <v>0.04240323287909673</v>
+        <v>0.01301255754421531</v>
       </c>
       <c r="T6">
-        <v>0.04240323287909673</v>
+        <v>0.009587175978642138</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -838,60 +838,60 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.08115502202555</v>
+        <v>19.76703633333333</v>
       </c>
       <c r="H7">
-        <v>1.08115502202555</v>
+        <v>59.301109</v>
       </c>
       <c r="I7">
-        <v>0.05123051661156925</v>
+        <v>0.8240384930780011</v>
       </c>
       <c r="J7">
-        <v>0.05123051661156925</v>
+        <v>0.8607507786564448</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.518930833472053</v>
+        <v>2.655685</v>
       </c>
       <c r="N7">
-        <v>0.518930833472053</v>
+        <v>7.967055</v>
       </c>
       <c r="O7">
-        <v>0.1723051867581419</v>
+        <v>0.7595739188695422</v>
       </c>
       <c r="P7">
-        <v>0.1723051867581419</v>
+        <v>0.8036360573586609</v>
       </c>
       <c r="Q7">
-        <v>0.5610446766922145</v>
+        <v>52.49502188488834</v>
       </c>
       <c r="R7">
-        <v>0.5610446766922145</v>
+        <v>472.455196963995</v>
       </c>
       <c r="S7">
-        <v>0.008827283732472531</v>
+        <v>0.6259181474866095</v>
       </c>
       <c r="T7">
-        <v>0.008827283732472531</v>
+        <v>0.6917303621278628</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.6134545829154751</v>
+        <v>19.76703633333333</v>
       </c>
       <c r="H8">
-        <v>0.6134545829154751</v>
+        <v>59.301109</v>
       </c>
       <c r="I8">
-        <v>0.02906853740698051</v>
+        <v>0.8240384930780011</v>
       </c>
       <c r="J8">
-        <v>0.02906853740698051</v>
+        <v>0.8607507786564448</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>2.49276511855089</v>
+        <v>0.26551</v>
       </c>
       <c r="N8">
-        <v>2.49276511855089</v>
+        <v>0.79653</v>
       </c>
       <c r="O8">
-        <v>0.8276948132418582</v>
+        <v>0.07594065982940451</v>
       </c>
       <c r="P8">
-        <v>0.8276948132418582</v>
+        <v>0.08034590306805892</v>
       </c>
       <c r="Q8">
-        <v>1.529198186106881</v>
+        <v>5.248345816863333</v>
       </c>
       <c r="R8">
-        <v>1.529198186106881</v>
+        <v>47.23511235176999</v>
       </c>
       <c r="S8">
-        <v>0.0240598776402847</v>
+        <v>0.06257802688917159</v>
       </c>
       <c r="T8">
-        <v>0.0240598776402847</v>
+        <v>0.06915779862768695</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -965,52 +965,548 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.6134545829154751</v>
+        <v>19.76703633333333</v>
       </c>
       <c r="H9">
-        <v>0.6134545829154751</v>
+        <v>59.301109</v>
       </c>
       <c r="I9">
-        <v>0.02906853740698051</v>
+        <v>0.8240384930780011</v>
       </c>
       <c r="J9">
-        <v>0.02906853740698051</v>
+        <v>0.8607507786564448</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.518930833472053</v>
+        <v>0.519877</v>
       </c>
       <c r="N9">
-        <v>0.518930833472053</v>
+        <v>1.039754</v>
       </c>
       <c r="O9">
-        <v>0.1723051867581419</v>
+        <v>0.1486942202181889</v>
       </c>
       <c r="P9">
-        <v>0.1723051867581419</v>
+        <v>0.1048798841206565</v>
       </c>
       <c r="Q9">
-        <v>0.3183404980095781</v>
+        <v>10.27642754786433</v>
       </c>
       <c r="R9">
-        <v>0.3183404980095781</v>
+        <v>61.658565287186</v>
       </c>
       <c r="S9">
-        <v>0.00500865976669581</v>
+        <v>0.1225297611580048</v>
       </c>
       <c r="T9">
-        <v>0.00500865976669581</v>
+        <v>0.09027544192225281</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1.151594333333333</v>
+      </c>
+      <c r="H10">
+        <v>3.454783</v>
+      </c>
+      <c r="I10">
+        <v>0.04800709843776271</v>
+      </c>
+      <c r="J10">
+        <v>0.05014589452853316</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.5</v>
+      </c>
+      <c r="M10">
+        <v>0.0552105</v>
+      </c>
+      <c r="N10">
+        <v>0.110421</v>
+      </c>
+      <c r="O10">
+        <v>0.01579120108286444</v>
+      </c>
+      <c r="P10">
+        <v>0.01113815545262342</v>
+      </c>
+      <c r="Q10">
+        <v>0.06358009894050001</v>
+      </c>
+      <c r="R10">
+        <v>0.381480593643</v>
+      </c>
+      <c r="S10">
+        <v>0.0007580897448355783</v>
+      </c>
+      <c r="T10">
+        <v>0.0005585327685696606</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1.151594333333333</v>
+      </c>
+      <c r="H11">
+        <v>3.454783</v>
+      </c>
+      <c r="I11">
+        <v>0.04800709843776271</v>
+      </c>
+      <c r="J11">
+        <v>0.05014589452853316</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>2.655685</v>
+      </c>
+      <c r="N11">
+        <v>7.967055</v>
+      </c>
+      <c r="O11">
+        <v>0.7595739188695422</v>
+      </c>
+      <c r="P11">
+        <v>0.8036360573586609</v>
+      </c>
+      <c r="Q11">
+        <v>3.058271797118334</v>
+      </c>
+      <c r="R11">
+        <v>27.524446174065</v>
+      </c>
+      <c r="S11">
+        <v>0.0364649398939273</v>
+      </c>
+      <c r="T11">
+        <v>0.04029904897163364</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1.151594333333333</v>
+      </c>
+      <c r="H12">
+        <v>3.454783</v>
+      </c>
+      <c r="I12">
+        <v>0.04800709843776271</v>
+      </c>
+      <c r="J12">
+        <v>0.05014589452853316</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.26551</v>
+      </c>
+      <c r="N12">
+        <v>0.79653</v>
+      </c>
+      <c r="O12">
+        <v>0.07594065982940451</v>
+      </c>
+      <c r="P12">
+        <v>0.08034590306805892</v>
+      </c>
+      <c r="Q12">
+        <v>0.3057598114433333</v>
+      </c>
+      <c r="R12">
+        <v>2.75183830299</v>
+      </c>
+      <c r="S12">
+        <v>0.003645690731858874</v>
+      </c>
+      <c r="T12">
+        <v>0.004029017181050631</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1.151594333333333</v>
+      </c>
+      <c r="H13">
+        <v>3.454783</v>
+      </c>
+      <c r="I13">
+        <v>0.04800709843776271</v>
+      </c>
+      <c r="J13">
+        <v>0.05014589452853316</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.519877</v>
+      </c>
+      <c r="N13">
+        <v>1.039754</v>
+      </c>
+      <c r="O13">
+        <v>0.1486942202181889</v>
+      </c>
+      <c r="P13">
+        <v>0.1048798841206565</v>
+      </c>
+      <c r="Q13">
+        <v>0.5986874072303334</v>
+      </c>
+      <c r="R13">
+        <v>3.592124443382</v>
+      </c>
+      <c r="S13">
+        <v>0.00713837806714096</v>
+      </c>
+      <c r="T13">
+        <v>0.005259295607279222</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.655778</v>
+      </c>
+      <c r="H14">
+        <v>1.311556</v>
+      </c>
+      <c r="I14">
+        <v>0.02733775087985481</v>
+      </c>
+      <c r="J14">
+        <v>0.01903712877024833</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.5</v>
+      </c>
+      <c r="M14">
+        <v>0.0552105</v>
+      </c>
+      <c r="N14">
+        <v>0.110421</v>
+      </c>
+      <c r="O14">
+        <v>0.01579120108286444</v>
+      </c>
+      <c r="P14">
+        <v>0.01113815545262342</v>
+      </c>
+      <c r="Q14">
+        <v>0.036205831269</v>
+      </c>
+      <c r="R14">
+        <v>0.144823325076</v>
+      </c>
+      <c r="S14">
+        <v>0.0004316959212970417</v>
+      </c>
+      <c r="T14">
+        <v>0.0002120384996146357</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.655778</v>
+      </c>
+      <c r="H15">
+        <v>1.311556</v>
+      </c>
+      <c r="I15">
+        <v>0.02733775087985481</v>
+      </c>
+      <c r="J15">
+        <v>0.01903712877024833</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>2.655685</v>
+      </c>
+      <c r="N15">
+        <v>7.967055</v>
+      </c>
+      <c r="O15">
+        <v>0.7595739188695422</v>
+      </c>
+      <c r="P15">
+        <v>0.8036360573586609</v>
+      </c>
+      <c r="Q15">
+        <v>1.74153979793</v>
+      </c>
+      <c r="R15">
+        <v>10.44923878758</v>
+      </c>
+      <c r="S15">
+        <v>0.0207650425688906</v>
+      </c>
+      <c r="T15">
+        <v>0.0152989231083515</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.655778</v>
+      </c>
+      <c r="H16">
+        <v>1.311556</v>
+      </c>
+      <c r="I16">
+        <v>0.02733775087985481</v>
+      </c>
+      <c r="J16">
+        <v>0.01903712877024833</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.26551</v>
+      </c>
+      <c r="N16">
+        <v>0.79653</v>
+      </c>
+      <c r="O16">
+        <v>0.07594065982940451</v>
+      </c>
+      <c r="P16">
+        <v>0.08034590306805892</v>
+      </c>
+      <c r="Q16">
+        <v>0.17411561678</v>
+      </c>
+      <c r="R16">
+        <v>1.04469370068</v>
+      </c>
+      <c r="S16">
+        <v>0.002076046840068058</v>
+      </c>
+      <c r="T16">
+        <v>0.001529555302868528</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.655778</v>
+      </c>
+      <c r="H17">
+        <v>1.311556</v>
+      </c>
+      <c r="I17">
+        <v>0.02733775087985481</v>
+      </c>
+      <c r="J17">
+        <v>0.01903712877024833</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.519877</v>
+      </c>
+      <c r="N17">
+        <v>1.039754</v>
+      </c>
+      <c r="O17">
+        <v>0.1486942202181889</v>
+      </c>
+      <c r="P17">
+        <v>0.1048798841206565</v>
+      </c>
+      <c r="Q17">
+        <v>0.340923899306</v>
+      </c>
+      <c r="R17">
+        <v>1.363695597224</v>
+      </c>
+      <c r="S17">
+        <v>0.004064965549599119</v>
+      </c>
+      <c r="T17">
+        <v>0.001996611859413661</v>
       </c>
     </row>
   </sheetData>
